--- a/docs/api-operations.xlsx
+++ b/docs/api-operations.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cloud\github\escamarla\zucchini\swagger\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cloud\github\escamarla\zucchini\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -101,9 +101,6 @@
     <t>Security</t>
   </si>
   <si>
-    <t>/student/{id}/course</t>
-  </si>
-  <si>
     <t>listStudentCourses</t>
   </si>
   <si>
@@ -131,18 +128,6 @@
     <t>no check already enrolled</t>
   </si>
   <si>
-    <t>/student/{id}/course/{id}</t>
-  </si>
-  <si>
-    <t>/university/{id}/course</t>
-  </si>
-  <si>
-    <t>/university/{id}/course/{id}</t>
-  </si>
-  <si>
-    <t>/university/{id}/student</t>
-  </si>
-  <si>
     <t>Tags</t>
   </si>
   <si>
@@ -156,6 +141,21 @@
   </si>
   <si>
     <t>addOrUpdatedStudent</t>
+  </si>
+  <si>
+    <t>/student/{studentId}/course</t>
+  </si>
+  <si>
+    <t>/student/{studentId}/course/{courseId}</t>
+  </si>
+  <si>
+    <t>/university/{universityId}/course</t>
+  </si>
+  <si>
+    <t>/university/{universityId}/student</t>
+  </si>
+  <si>
+    <t>/university/{universityId}/course/{courseId}</t>
   </si>
 </sst>
 </file>
@@ -268,9 +268,9 @@
     <tableColumn id="3" name="Operation Id" dataDxfId="5"/>
     <tableColumn id="4" name="path" dataDxfId="4"/>
     <tableColumn id="5" name="Verb" dataDxfId="3"/>
-    <tableColumn id="8" name="Params" dataDxfId="0"/>
-    <tableColumn id="6" name="description" dataDxfId="2"/>
-    <tableColumn id="7" name="Tags" dataDxfId="1"/>
+    <tableColumn id="8" name="Params" dataDxfId="2"/>
+    <tableColumn id="6" name="description" dataDxfId="1"/>
+    <tableColumn id="7" name="Tags" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -541,8 +541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -550,7 +550,7 @@
     <col min="1" max="1" width="9.5703125" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" customWidth="1"/>
     <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.42578125" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" customWidth="1"/>
     <col min="6" max="6" width="17.85546875" customWidth="1"/>
     <col min="7" max="7" width="37.85546875" customWidth="1"/>
@@ -558,7 +558,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -572,19 +572,19 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -592,19 +592,19 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" t="s">
         <v>7</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>8</v>
@@ -616,15 +616,15 @@
         <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" t="s">
         <v>6</v>
       </c>
       <c r="F5" s="2"/>
@@ -636,15 +636,15 @@
         <v>16</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="D6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" t="s">
         <v>7</v>
       </c>
       <c r="F6" s="2"/>
@@ -658,15 +658,15 @@
         <v>16</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="2" t="s">
+      <c r="D7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" t="s">
         <v>6</v>
       </c>
       <c r="F7" s="2"/>
@@ -680,20 +680,20 @@
         <v>16</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="2" t="s">
+      <c r="D8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" t="s">
         <v>19</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H8" s="2"/>
     </row>
@@ -702,15 +702,15 @@
         <v>9</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" t="s">
         <v>6</v>
       </c>
       <c r="F9" s="2"/>
@@ -722,15 +722,15 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="2" t="s">
+      <c r="D10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" t="s">
         <v>7</v>
       </c>
       <c r="F10" s="2"/>
@@ -744,15 +744,15 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="2" t="s">
+      <c r="D11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" t="s">
         <v>6</v>
       </c>
       <c r="F11" s="2"/>
@@ -764,15 +764,15 @@
         <v>9</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="2" t="s">
+      <c r="D12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" t="s">
         <v>6</v>
       </c>
       <c r="F12" s="2"/>
@@ -784,15 +784,15 @@
         <v>9</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="2" t="s">
+      <c r="D13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" t="s">
         <v>19</v>
       </c>
       <c r="F13" s="2"/>
@@ -806,15 +806,15 @@
         <v>9</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" s="2" t="s">
+      <c r="D14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" t="s">
         <v>7</v>
       </c>
       <c r="F14" s="2"/>
